--- a/Overview - Healthcare Dentistry & OMFS.xlsx
+++ b/Overview - Healthcare Dentistry & OMFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED464FD-2E55-4D8E-B213-37F638F2B0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71192712-B302-41EB-8810-9C5CB4D58E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8DF8BC3C-C6AD-4982-9AD0-13D2E2D26EC6}"/>
   </bookViews>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,13 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +538,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -552,13 +553,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -620,6 +621,9 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="8">
+        <v>65.2</v>
+      </c>
       <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
@@ -631,6 +635,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="8">
+        <v>195.95</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>16</v>
       </c>
@@ -642,6 +649,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="8"/>
       <c r="T5" s="1" t="s">
         <v>17</v>
       </c>
@@ -653,47 +661,50 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="8">
+        <v>29.81</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="T7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="T7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="T8" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="T8" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Overview - Healthcare Dentistry & OMFS.xlsx
+++ b/Overview - Healthcare Dentistry & OMFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71192712-B302-41EB-8810-9C5CB4D58E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9176E16-39B9-E842-8FC8-4D0879E50840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8DF8BC3C-C6AD-4982-9AD0-13D2E2D26EC6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{8DF8BC3C-C6AD-4982-9AD0-13D2E2D26EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>$HSIC</t>
   </si>
@@ -133,12 +143,21 @@
   </si>
   <si>
     <t>,Normalised to Pound Sterling (GBP)</t>
+  </si>
+  <si>
+    <t>NASDAQ</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,10 +233,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,30 +558,30 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="4"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="17" width="9.140625" style="4"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.1640625" style="4"/>
+    <col min="6" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="17" width="9.1640625" style="4"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="7" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
@@ -614,61 +634,101 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7">
         <v>65.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>135.55000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <f>G3*F3</f>
+        <v>8837.86</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7">
         <v>195.95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78.11</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H6" si="0">G4*F4</f>
+        <v>15305.654499999999</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="9"/>
       <c r="T5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8">
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7">
         <v>29.81</v>
+      </c>
+      <c r="G6" s="1">
+        <v>214.91</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>6406.4670999999998</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -688,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
